--- a/src/test/resources/Lemondata.xlsx
+++ b/src/test/resources/Lemondata.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyJavaCode2\JAVA_API_Automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4AB999-2BE1-41BB-B778-D0655DCAFD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2179188-CB9B-4D1E-BE6C-7FB0C96FD209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="13580" windowWidth="19380" windowHeight="12090" xr2:uid="{4E702546-863B-4A44-BCE7-8463911943E7}"/>
+    <workbookView xWindow="500" yWindow="12470" windowWidth="18180" windowHeight="10420" xr2:uid="{4E702546-863B-4A44-BCE7-8463911943E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="7" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="upload" sheetId="6" r:id="rId3"/>
+    <sheet name="Search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -62,23 +65,319 @@
     <t>http://shop.lemonban.com:8107/login</t>
   </si>
   <si>
-    <t>"Content-Type","application/json; charset=UTF-8"</t>
-  </si>
-  <si>
     <t xml:space="preserve">search for a product </t>
   </si>
   <si>
-    <t>http://shop.lemonban.com:8107/search/searchProdPage?prodName=阿玛尼粉底液</t>
-  </si>
-  <si>
     <t xml:space="preserve">expected result </t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json; charset=UTF-8"}</t>
+  </si>
+  <si>
+    <t>{"principal":"lemon70","credentials":"12345678","appType":3,"loginType":0}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>load product info</t>
+  </si>
+  <si>
+    <t>add into trolley</t>
+  </si>
+  <si>
+    <t>{"statuscode":200,"nickName":"lemon70","enabled":true}</t>
+  </si>
+  <si>
+    <t>login in failed</t>
+  </si>
+  <si>
+    <t>{"principal":"lemon70","credentials":"12345","appType":3,"loginType":0}</t>
+  </si>
+  <si>
+    <t>{"statuscode":400,"bodystring":"账号或密码不正确"}</t>
+  </si>
+  <si>
+    <t>{"token":"access_token"}</t>
+  </si>
+  <si>
+    <t>data to extract</t>
+  </si>
+  <si>
+    <t>http://shop.lemonban.com:8107/prod/prodInfo</t>
+  </si>
+  <si>
+    <t>http://shop.lemonban.com:8107/search/searchProdPage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trolley info </t>
+  </si>
+  <si>
+    <t>http://shop.lemonban.com:8107/p/shopCart/changeItem</t>
+  </si>
+  <si>
+    <t>{"statuscode":200}</t>
+  </si>
+  <si>
+    <t>http://shop.lemonban.com:8107/p/shopCart/info</t>
+  </si>
+  <si>
+    <r>
+      <t>{"Content-Type":"application/json; charset=UTF-8","Authorization": "bearer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{token}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">tick product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://shop.lemonban.com:8107/p/shopCart/totalPay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://shop.lemonban.com:8107/p/order/confirm </t>
+  </si>
+  <si>
+    <t>{"prodId":"records[0].prodId"}</t>
+  </si>
+  <si>
+    <t>{"basketId":"shopCartItemDiscounts[0].shopCartItems[0].basketId[0]"}</t>
+  </si>
+  <si>
+    <t>?prodId={{prodId}}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"basketId":0,"count":1,"prodId":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{prodId}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","shopId":1,"skuId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{skuId}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"skuId":"skuList[0].skuId"}</t>
+  </si>
+  <si>
+    <t>?prodName=lemon电饭煲</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>{"addrId":0,"basketIds":[{{basketId}}],"couponIds":[],"isScorePay":0,"userChangeCoupon":0,"userUseScore":0,"uuid":"50b153d8-ab9d-4ec6-91b1-1c2bc898314d"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get into person centre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload </t>
+  </si>
+  <si>
+    <t xml:space="preserve">save the setting </t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>http://shop.lemonban.com:8107/p/user/centerInfo</t>
+  </si>
+  <si>
+    <t>http://shop.lemonban.com:8107/p/file/upload</t>
+  </si>
+  <si>
+    <t>http://shop.lemonban.com:8107/p/user/setUserInfo</t>
+  </si>
+  <si>
+    <t>src/test/resources/lemon_photo.png</t>
+  </si>
+  <si>
+    <t>{"resourcesUrl":"resourcesUrl","filePath":"filePath"}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"Authorization": "bearer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>token}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","Content-Type":"application/json; charset=UTF-8"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"avatarUrl":"{{resourcesUrl}}{{filePath}}","nickName":"lemon70","userMobile":"17899887766","auth":{}}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"Authorization": "bearer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{token}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","Content-Type":"multipart/form-data"
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"Authorization": "bearer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{token}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">send SMS </t>
+  </si>
+  <si>
+    <t>http://shop.lemonban.com:8107/user/sendRegisterSms</t>
+  </si>
+  <si>
+    <t>{"mobile":"13581759571"}</t>
+  </si>
+  <si>
+    <t>Content-Type: application/json; charset=UTF-8</t>
+  </si>
+  <si>
+    <t>validation the verfication code</t>
+  </si>
+  <si>
+    <t>{"mobile":"13581759571",","validCode":"123456"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registeration request </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracted </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +389,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -124,6 +437,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -459,22 +775,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAFB93C-AF66-44C9-8801-C49D5FA1CAFF}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1029F4F-2077-4FFA-8C70-923A2CA6D60F}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="4" width="7.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{732B2D3B-6BB3-4659-A704-BD746C81253E}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F52B89D4-FACE-445D-82D4-9C4404ED0F8D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAFB93C-AF66-44C9-8801-C49D5FA1CAFF}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="4" width="7.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="35.6328125" customWidth="1"/>
+    <col min="8" max="8" width="29.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{78AA0C64-72ED-48CB-B5F2-17137F3DBC73}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{EFDCA0FC-EDA7-4D4E-B637-AF1CD7F06D78}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CF8617-5325-49B7-90EC-269398664E6B}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.6328125" customWidth="1"/>
     <col min="3" max="3" width="7.6328125" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="62.1796875" customWidth="1"/>
+    <col min="6" max="6" width="29.08984375" customWidth="1"/>
+    <col min="7" max="7" width="35.6328125" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,54 +1026,381 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{78AA0C64-72ED-48CB-B5F2-17137F3DBC73}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{86AA1D88-7394-4CBD-A596-0F820FE38486}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F6A1C703-7EA2-4454-9B0E-CE26DD6A92A5}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{2C6A69BF-7395-4DFC-B226-4BC2F0B6600A}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{4CA3D168-9100-419C-B141-827CD1970C0F}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{E96050F9-D602-4BF5-9FA6-CB66968B93E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCF517F-6223-4091-8F7D-B03507F9C71E}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="29.08984375" customWidth="1"/>
+    <col min="7" max="7" width="35.6328125" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E14" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{4E12A883-8A85-4773-ADEB-27982A04AC0E}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{2A961BBB-9F5B-4375-8F13-2210247DB7FB}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{771DB628-A9AC-4DE4-A5A3-073F16120876}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{74035146-BCCF-4DF9-AFBB-AAD892BCBAB4}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{FE003550-4C85-46D8-95F6-622713542D07}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{87C87B2D-40A8-4493-972D-EE01B7A80671}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{D7836090-CCBB-42BB-A634-09A71FE904CD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/src/test/resources/Lemondata.xlsx
+++ b/src/test/resources/Lemondata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyJavaCode2\JAVA_API_Automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2179188-CB9B-4D1E-BE6C-7FB0C96FD209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D9F1A-D324-46D4-A36C-A9BB9E526520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="12470" windowWidth="18180" windowHeight="10420" xr2:uid="{4E702546-863B-4A44-BCE7-8463911943E7}"/>
+    <workbookView xWindow="-110" yWindow="11890" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{4E702546-863B-4A44-BCE7-8463911943E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="7" r:id="rId1"/>
+    <sheet name="Register" sheetId="7" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
     <sheet name="upload" sheetId="6" r:id="rId3"/>
     <sheet name="Search" sheetId="4" r:id="rId4"/>
+    <sheet name="RSAencryption" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -157,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://shop.lemonban.com:8107/p/shopCart/totalPay </t>
-  </si>
-  <si>
-    <t xml:space="preserve">submit order </t>
   </si>
   <si>
     <t xml:space="preserve">http://shop.lemonban.com:8107/p/order/confirm </t>
@@ -355,29 +353,394 @@
     <t>http://shop.lemonban.com:8107/user/sendRegisterSms</t>
   </si>
   <si>
-    <t>{"mobile":"13581759571"}</t>
-  </si>
-  <si>
     <t>Content-Type: application/json; charset=UTF-8</t>
   </si>
   <si>
     <t>validation the verfication code</t>
   </si>
   <si>
-    <t>{"mobile":"13581759571",","validCode":"123456"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">registeration request </t>
   </si>
   <si>
-    <t xml:space="preserve">extracted </t>
+    <t xml:space="preserve">http://shop.lemonban.com:8107/user/registerOrBindUser </t>
+  </si>
+  <si>
+    <t>{"appType":3,"checkRegisterSmsFlag":"44055d378f4f476b9ff2d5d84be38445","mobile":"13581759571","userName":"lemonxinyang","password":"Ginny_1212","registerOrBind":1,"validateType":1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db_assertion </t>
+  </si>
+  <si>
+    <t>{"checksmsflag":"bodystr"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"SELECT COUNT(*) FROM tz_user WHERE user_mobile = '{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phone}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>';":1}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"code":"SELECT mobile_code FROM tz_sms_log WHERE user_phone = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{phone}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' ORDER BY rec_date DESC LIMIT 1;"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"mobile":"{{phone}}"}</t>
+  </si>
+  <si>
+    <t>{"mobile":"{{phone}}",","validCode":"{{code}}"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"appType":3,"checkRegisterSmsFlag":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{checksmsflag}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","mobile":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{phone}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","userName":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"{{username}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","password":"lemon123456","registerOrBind":1,"validateType":1}</t>
+    </r>
+  </si>
+  <si>
+    <t>postsql</t>
+  </si>
+  <si>
+    <t>{"orderNumbers":"orderNumbers"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"SELECT COUNT(*) FROM tz_order WHERE order_number = '{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orderNumbers}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}';":1}</t>
+    </r>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/p/order/submit</t>
+  </si>
+  <si>
+    <t>{"orderShopParam":[{"remarks":"","shopId":1}],"uuid":"5df403a8-214b-4cac-a8a3-6d102b421389"}</t>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/p/order/pay</t>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/notice/pay/3</t>
+  </si>
+  <si>
+    <t>{"statuscode":200,"bodystr":"true"}</t>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/p/order/isPay/{{orderNumbers}}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"payType":3,"orderNumbers":"{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{orderNumbers}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"payNo":"{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{orderNumbers}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","bizPayNo":"XXXX","isPaySuccess":true}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">go to payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit the order </t>
+  </si>
+  <si>
+    <t>choose payment method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mock payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the order status </t>
+  </si>
+  <si>
+    <t>登录请求</t>
+  </si>
+  <si>
+    <t>p0</t>
+  </si>
+  <si>
+    <t>http://api.lemonban.com:8788/futureloan/member/login</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v3","Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"13323231111","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"statuscode":200,"msg":"OK"}</t>
+  </si>
+  <si>
+    <t>{"memberId":"data.id","token":"data.token_info.token"}</t>
+  </si>
+  <si>
+    <t>充值请求</t>
+  </si>
+  <si>
+    <t>http://api.lemonban.com:8788/futureloan/member/recharge</t>
+  </si>
+  <si>
+    <r>
+      <t>{"X-Lemonban-Media-Type":"lemonban.v3","Content-Type":"application/json","Authorization":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bearer {{token}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"member_id": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{memberId}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,"amount": 10000.0,"timestamp": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{timestamp}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"sign": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{sign}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +770,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -429,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -439,6 +816,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,24 +1159,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1029F4F-2077-4FFA-8C70-923A2CA6D60F}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.6328125" customWidth="1"/>
     <col min="3" max="4" width="7.6328125" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="23.36328125" customWidth="1"/>
     <col min="8" max="8" width="19.1796875" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,88 +1204,115 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="154" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="G5" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{732B2D3B-6BB3-4659-A704-BD746C81253E}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F52B89D4-FACE-445D-82D4-9C4404ED0F8D}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{012B993F-E01B-4E4F-A714-8ADC9FE018BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAFB93C-AF66-44C9-8801-C49D5FA1CAFF}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,7 +1325,7 @@
     <col min="8" max="8" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -938,8 +1350,14 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -962,7 +1380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -997,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CF8617-5325-49B7-90EC-269398664E6B}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,10 +1430,10 @@
     <col min="6" max="6" width="29.08984375" customWidth="1"/>
     <col min="7" max="7" width="35.6328125" customWidth="1"/>
     <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1043,8 +1461,14 @@
       <c r="I1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1070,93 +1494,93 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" s="3"/>
     </row>
   </sheetData>
@@ -1173,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCF517F-6223-4091-8F7D-B03507F9C71E}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,11 +1611,12 @@
     <col min="5" max="5" width="49" customWidth="1"/>
     <col min="6" max="6" width="29.08984375" customWidth="1"/>
     <col min="7" max="7" width="35.6328125" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="8" max="8" width="31.90625" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1219,8 +1644,14 @@
       <c r="I1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1246,7 +1677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1260,16 +1691,16 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1283,16 +1714,16 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1309,13 +1740,13 @@
         <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1332,16 +1763,16 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1358,36 +1789,134 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" s="3"/>
     </row>
   </sheetData>
@@ -1399,8 +1928,130 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{FE003550-4C85-46D8-95F6-622713542D07}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{87C87B2D-40A8-4493-972D-EE01B7A80671}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{D7836090-CCBB-42BB-A634-09A71FE904CD}"/>
+    <hyperlink ref="E9" r:id="rId8" tooltip="http://mall.lemonban.com:8107/p/order/submit" xr:uid="{33DC660B-0F0A-4734-8CD3-ADFB9F190439}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{E38D5047-E910-40BF-9A9D-8A86F6B4D212}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{1111A9A0-2426-4DDE-B172-4E9C240C9F17}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{4ACEA928-3C86-466F-A36A-DEE844D7EEB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFE548F-7509-42A0-8FDE-3BB7080DC4D0}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="21.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="47.90625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="49.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="44.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{34634ED7-A785-47DB-91C1-D540F29BE044}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{5758D597-DDF9-4AE2-801D-29A3513D44D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Lemondata.xlsx
+++ b/src/test/resources/Lemondata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyJavaCode2\JAVA_API_Automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D9F1A-D324-46D4-A36C-A9BB9E526520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE730D1-B5AD-4FB0-857A-AF1A15C1ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="11890" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{4E702546-863B-4A44-BCE7-8463911943E7}"/>
+    <workbookView xWindow="-560" yWindow="1270" windowWidth="18660" windowHeight="10050" activeTab="3" xr2:uid="{4E702546-863B-4A44-BCE7-8463911943E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="7" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <t>{"skuId":"skuList[0].skuId"}</t>
   </si>
   <si>
-    <t>?prodName=lemon电饭煲</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -734,6 +731,9 @@
       </rPr>
       <t>"}</t>
     </r>
+  </si>
+  <si>
+    <t>?prodName=真皮圆筒包</t>
   </si>
 </sst>
 </file>
@@ -1207,36 +1207,36 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="154" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1244,25 +1244,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -1270,30 +1270,30 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="G5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1351,10 +1351,10 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1462,10 +1462,10 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1499,68 +1499,68 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCF517F-6223-4091-8F7D-B03507F9C71E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1645,10 +1645,10 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1691,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -1723,7 +1723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -1789,7 +1789,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1812,7 +1812,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -1823,28 +1823,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1852,19 +1852,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -1875,25 +1875,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>74</v>
+      <c r="E11" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1901,19 +1901,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1942,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFE548F-7509-42A0-8FDE-3BB7080DC4D0}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1986,10 +1986,10 @@
         <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1997,28 +1997,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="44.5" x14ac:dyDescent="0.35">
@@ -2026,25 +2026,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Lemondata.xlsx
+++ b/src/test/resources/Lemondata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyJavaCode2\JAVA_API_Automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE730D1-B5AD-4FB0-857A-AF1A15C1ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85422D99-E680-43DE-ADEB-3A7903977A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-560" yWindow="1270" windowWidth="18660" windowHeight="10050" activeTab="3" xr2:uid="{4E702546-863B-4A44-BCE7-8463911943E7}"/>
+    <workbookView xWindow="560" yWindow="1950" windowWidth="18660" windowHeight="10050" activeTab="3" xr2:uid="{4E702546-863B-4A44-BCE7-8463911943E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -350,21 +350,12 @@
     <t>http://shop.lemonban.com:8107/user/sendRegisterSms</t>
   </si>
   <si>
-    <t>Content-Type: application/json; charset=UTF-8</t>
-  </si>
-  <si>
-    <t>validation the verfication code</t>
-  </si>
-  <si>
     <t xml:space="preserve">registeration request </t>
   </si>
   <si>
     <t xml:space="preserve">http://shop.lemonban.com:8107/user/registerOrBindUser </t>
   </si>
   <si>
-    <t>{"appType":3,"checkRegisterSmsFlag":"44055d378f4f476b9ff2d5d84be38445","mobile":"13581759571","userName":"lemonxinyang","password":"Ginny_1212","registerOrBind":1,"validateType":1}</t>
-  </si>
-  <si>
     <t xml:space="preserve">db_assertion </t>
   </si>
   <si>
@@ -424,7 +415,257 @@
     <t>{"mobile":"{{phone}}"}</t>
   </si>
   <si>
-    <t>{"mobile":"{{phone}}",","validCode":"{{code}}"}</t>
+    <t>postsql</t>
+  </si>
+  <si>
+    <t>{"orderNumbers":"orderNumbers"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"SELECT COUNT(*) FROM tz_order WHERE order_number = '{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orderNumbers}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}';":1}</t>
+    </r>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/p/order/submit</t>
+  </si>
+  <si>
+    <t>{"orderShopParam":[{"remarks":"","shopId":1}],"uuid":"5df403a8-214b-4cac-a8a3-6d102b421389"}</t>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/p/order/pay</t>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/notice/pay/3</t>
+  </si>
+  <si>
+    <t>{"statuscode":200,"bodystr":"true"}</t>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/p/order/isPay/{{orderNumbers}}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"payType":3,"orderNumbers":"{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{orderNumbers}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"payNo":"{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{orderNumbers}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","bizPayNo":"XXXX","isPaySuccess":true}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">go to payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit the order </t>
+  </si>
+  <si>
+    <t>choose payment method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mock payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the order status </t>
+  </si>
+  <si>
+    <t>登录请求</t>
+  </si>
+  <si>
+    <t>p0</t>
+  </si>
+  <si>
+    <t>http://api.lemonban.com:8788/futureloan/member/login</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v3","Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"13323231111","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"statuscode":200,"msg":"OK"}</t>
+  </si>
+  <si>
+    <t>{"memberId":"data.id","token":"data.token_info.token"}</t>
+  </si>
+  <si>
+    <t>充值请求</t>
+  </si>
+  <si>
+    <t>http://api.lemonban.com:8788/futureloan/member/recharge</t>
+  </si>
+  <si>
+    <r>
+      <t>{"X-Lemonban-Media-Type":"lemonban.v3","Content-Type":"application/json","Authorization":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bearer {{token}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"member_id": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{memberId}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,"amount": 10000.0,"timestamp": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{timestamp}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"sign": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{sign}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>?prodName=真皮圆筒包</t>
+  </si>
+  <si>
+    <t>{"mobile":"{{phone}}","validCode":"{{code}}"}</t>
+  </si>
+  <si>
+    <t>validation of verfication code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://shop.lemonban.com:8107/user/checkRegisterSms</t>
   </si>
   <si>
     <r>
@@ -488,252 +729,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>","password":"lemon123456","registerOrBind":1,"validateType":1}</t>
-    </r>
-  </si>
-  <si>
-    <t>postsql</t>
-  </si>
-  <si>
-    <t>{"orderNumbers":"orderNumbers"}</t>
-  </si>
-  <si>
-    <r>
-      <t>{"SELECT COUNT(*) FROM tz_order WHERE order_number = '{{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>orderNumbers}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}';":1}</t>
-    </r>
-  </si>
-  <si>
-    <t>http://mall.lemonban.com:8107/p/order/submit</t>
-  </si>
-  <si>
-    <t>{"orderShopParam":[{"remarks":"","shopId":1}],"uuid":"5df403a8-214b-4cac-a8a3-6d102b421389"}</t>
-  </si>
-  <si>
-    <t>http://mall.lemonban.com:8107/p/order/pay</t>
-  </si>
-  <si>
-    <t>http://mall.lemonban.com:8107/notice/pay/3</t>
-  </si>
-  <si>
-    <t>{"statuscode":200,"bodystr":"true"}</t>
-  </si>
-  <si>
-    <t>http://mall.lemonban.com:8107/p/order/isPay/{{orderNumbers}}</t>
-  </si>
-  <si>
-    <r>
-      <t>{"payType":3,"orderNumbers":"{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{orderNumbers}}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{"payNo":"{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{orderNumbers}}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","bizPayNo":"XXXX","isPaySuccess":true}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">go to payment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">submit the order </t>
-  </si>
-  <si>
-    <t>choose payment method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mock payment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">check the order status </t>
-  </si>
-  <si>
-    <t>登录请求</t>
-  </si>
-  <si>
-    <t>p0</t>
-  </si>
-  <si>
-    <t>http://api.lemonban.com:8788/futureloan/member/login</t>
-  </si>
-  <si>
-    <t>{"X-Lemonban-Media-Type":"lemonban.v3","Content-Type":"application/json"}</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"13323231111","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>{"statuscode":200,"msg":"OK"}</t>
-  </si>
-  <si>
-    <t>{"memberId":"data.id","token":"data.token_info.token"}</t>
-  </si>
-  <si>
-    <t>充值请求</t>
-  </si>
-  <si>
-    <t>http://api.lemonban.com:8788/futureloan/member/recharge</t>
-  </si>
-  <si>
-    <r>
-      <t>{"X-Lemonban-Media-Type":"lemonban.v3","Content-Type":"application/json","Authorization":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bearer {{token}}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{"member_id": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{{memberId}}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,"amount": 10000.0,"timestamp": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{{timestamp}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"sign": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{{sign}}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-  </si>
-  <si>
-    <t>?prodName=真皮圆筒包</t>
+      <t>","password":"123456","registerOrBind":1,"validateType":1}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"principal":"lemonxinyang","credentials":"Ginny_1212","appType":3,"loginType":0}</t>
+  </si>
+  <si>
+    <t>{"statuscode":200,"nickName":"lemonxinyang","enabled":true}</t>
   </si>
 </sst>
 </file>
@@ -1207,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1227,83 +1230,80 @@
         <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="G5" s="3" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{732B2D3B-6BB3-4659-A704-BD746C81253E}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{F52B89D4-FACE-445D-82D4-9C4404ED0F8D}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{012B993F-E01B-4E4F-A714-8ADC9FE018BB}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{012B993F-E01B-4E4F-A714-8ADC9FE018BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,10 +1351,10 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1462,10 +1462,10 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCF517F-6223-4091-8F7D-B03507F9C71E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1645,13 +1645,13 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1668,10 +1668,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -1691,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1818,82 +1818,80 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1901,19 +1899,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1986,10 +1984,10 @@
         <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -1997,28 +1995,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="44.5" x14ac:dyDescent="0.35">
@@ -2026,25 +2024,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
